--- a/04_Konzepte/01_Morphologischer_Kasten.xlsx
+++ b/04_Konzepte/01_Morphologischer_Kasten.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\04_Konzepte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\04_Konzepte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A4E558-E9EB-450D-B0F4-D35E8BCE0CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40D0DEE-D3D5-4B19-ABF0-76FCBDE1D81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="-240" windowWidth="29280" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="135" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>Uout</t>
   </si>
@@ -163,13 +174,34 @@
   </si>
   <si>
     <t>je nach Treiber</t>
+  </si>
+  <si>
+    <t>Endstufe</t>
+  </si>
+  <si>
+    <t>Schrittsteuerung</t>
+  </si>
+  <si>
+    <t>von IOe2</t>
+  </si>
+  <si>
+    <t>über MCU</t>
+  </si>
+  <si>
+    <t>über Controller</t>
+  </si>
+  <si>
+    <t>integriert im Treiber</t>
+  </si>
+  <si>
+    <t>eigenbau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +222,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -272,14 +309,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -304,13 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -319,9 +348,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{D977306B-47A0-4FB6-A7BE-6F18769977C5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,177 +637,242 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="20.140625" style="1"/>
+    <col min="3" max="8" width="20.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="20.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -785,327 +886,328 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>1</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>2</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>3</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>4</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>5</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>6</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>7</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>8</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>9</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>10</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>11</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>12</v>
       </c>
-      <c r="C41" s="12"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>13</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>15</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="13"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>16</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>17</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>18</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="13"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>19</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="14" t="s">
+      <c r="C48" s="10"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>20</v>
       </c>
-      <c r="C49" s="11"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="13"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>21</v>
       </c>
-      <c r="F50" s="13"/>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>22</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="14" t="s">
+      <c r="C51" s="10"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -1115,8 +1217,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
